--- a/data/outputs/能源化工元源数据文件/20ELECTROCHEMISTRY COMMUNICATIONS.xlsx
+++ b/data/outputs/能源化工元源数据文件/20ELECTROCHEMISTRY COMMUNICATIONS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ279"/>
+  <dimension ref="A1:BR279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -927,6 +932,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1144,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1349,6 +1356,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1568,6 +1576,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4606148</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1787,6 +1800,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1994,6 +2008,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2217,6 +2232,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2432,6 +2448,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2643,6 +2660,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2854,6 +2872,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3069,6 +3088,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3155,7 +3175,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>刘, 志宏/0000-0002-3554-7992; </t>
+          <t>刘, 志宏/0000-0002-3554-7992;</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -3292,6 +3312,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3507,6 +3528,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3718,6 +3740,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3933,6 +3956,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4144,6 +4168,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4355,6 +4380,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4566,6 +4592,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4785,6 +4812,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5004,6 +5032,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5219,6 +5248,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5438,6 +5468,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5657,6 +5688,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5876,6 +5908,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6095,6 +6128,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6310,6 +6344,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6525,6 +6560,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4873460</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6732,6 +6772,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>13400508</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6947,6 +6992,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7166,6 +7212,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7381,6 +7428,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>35576492</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7588,6 +7640,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7807,6 +7860,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8026,6 +8080,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8245,6 +8300,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8456,6 +8512,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8679,6 +8736,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8898,6 +8956,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9117,6 +9176,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9336,6 +9396,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9555,6 +9616,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9766,6 +9828,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9985,6 +10048,11 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>4669666</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10204,6 +10272,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10423,6 +10492,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10630,6 +10700,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10849,6 +10920,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10935,7 +11007,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Yuan, Yong/0000-0003-1513-9542; </t>
+          <t>Yuan, Yong/0000-0003-1513-9542;</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -11068,6 +11140,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>4540595</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11287,6 +11364,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11502,6 +11580,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11713,6 +11792,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11932,6 +12012,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12151,6 +12232,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>35376608</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -12362,6 +12448,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12577,6 +12664,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12796,6 +12884,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13011,6 +13100,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13230,6 +13320,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13441,6 +13532,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13656,6 +13748,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13871,6 +13964,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14090,6 +14184,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -14297,6 +14392,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14512,6 +14608,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14731,6 +14828,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>4354227</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14950,6 +15052,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4424649</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15153,6 +15260,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15372,6 +15480,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15591,6 +15700,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15802,6 +15912,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16021,6 +16132,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>33968137</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -16232,6 +16348,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16443,6 +16560,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16654,6 +16772,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16869,6 +16988,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17084,6 +17204,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>24264671</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17303,6 +17428,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17514,6 +17640,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17733,6 +17860,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>52501656</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17952,6 +18084,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18175,6 +18308,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -18394,6 +18528,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18605,6 +18740,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18691,7 +18827,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Allain, Clemence/0000-0002-2908-264X; Allain, Clemence/0000-0002-2908-264X; </t>
+          <t>Allain, Clemence/0000-0002-2908-264X; Allain, Clemence/0000-0002-2908-264X;</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr"/>
@@ -18816,6 +18952,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19035,6 +19172,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19250,6 +19388,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>4878979</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19461,6 +19604,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19672,6 +19816,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19891,6 +20036,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -20094,6 +20240,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20180,7 +20327,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>Cao, Bin/0000-0002-9462-496X; </t>
+          <t>Cao, Bin/0000-0002-9462-496X;</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -20313,6 +20460,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20532,6 +20680,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20747,6 +20896,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20833,7 +20983,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>, 董绍俊/0000-0002-0263-6577; </t>
+          <t>, 董绍俊/0000-0002-0263-6577;</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -20966,6 +21116,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -21177,6 +21328,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -21388,6 +21540,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -21599,6 +21752,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21818,6 +21972,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -22037,6 +22192,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -22256,6 +22412,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -22475,6 +22632,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -22694,6 +22852,11 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>35307659</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22913,6 +23076,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -23124,6 +23288,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -23339,6 +23504,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -23554,6 +23720,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23765,6 +23932,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23980,6 +24148,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -24199,6 +24368,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -24418,6 +24588,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -24621,6 +24792,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24828,6 +25000,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -25047,6 +25220,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -25266,6 +25440,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -25473,6 +25648,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -25688,6 +25864,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25774,7 +25951,7 @@
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>Zein El Abedin, Sherif/0000-0001-9319-9976; </t>
+          <t>Zein El Abedin, Sherif/0000-0001-9319-9976;</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr">
@@ -25907,6 +26084,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -26126,6 +26304,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -26333,6 +26512,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>49694050</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -26544,6 +26728,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -26759,6 +26944,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26978,6 +27164,11 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>6358394</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -27193,6 +27384,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -27412,6 +27604,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -27635,6 +27828,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -27854,6 +28048,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -28065,6 +28260,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -28276,6 +28472,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -28479,6 +28676,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -28690,6 +28888,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -28909,6 +29108,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -29124,6 +29324,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>4205666</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -29339,6 +29544,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -29554,6 +29760,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -29769,6 +29976,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29988,6 +30196,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -30203,6 +30412,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -30422,6 +30632,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -30633,6 +30844,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -30856,6 +31068,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -31071,6 +31284,11 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr">
+        <is>
+          <t>43007394</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -31290,6 +31508,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -31509,6 +31728,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -31728,6 +31948,11 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr">
+        <is>
+          <t>49717549</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -31947,6 +32172,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -32158,6 +32384,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -32377,6 +32604,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>3926950</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -32584,6 +32816,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -32803,6 +33036,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -33022,6 +33256,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -33237,6 +33472,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -33456,6 +33692,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -33671,6 +33908,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -33890,6 +34128,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -34109,6 +34348,7 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -34328,6 +34568,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -34547,6 +34788,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -34766,6 +35008,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -34977,6 +35220,7 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -35196,6 +35440,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -35415,6 +35660,7 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -35622,6 +35868,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -35841,6 +36088,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -36060,6 +36308,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -36279,6 +36528,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -36498,6 +36748,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -36713,6 +36964,7 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -36932,6 +37184,7 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -37147,6 +37400,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -37366,6 +37620,7 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -37581,6 +37836,7 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -37792,6 +38048,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -38007,6 +38264,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -38218,6 +38476,11 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr">
+        <is>
+          <t>35256366</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -38437,6 +38700,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -38648,6 +38912,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -38867,6 +39132,11 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr">
+        <is>
+          <t>3926921</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -39070,6 +39340,7 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -39289,6 +39560,7 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -39508,6 +39780,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -39727,6 +40000,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -39946,6 +40220,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -40161,6 +40436,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -40372,6 +40648,7 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -40591,6 +40868,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -40810,6 +41088,7 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -41029,6 +41308,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -41248,6 +41528,11 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr">
+        <is>
+          <t>3793589</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -41467,6 +41752,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -41686,6 +41972,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -41772,7 +42059,7 @@
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>Zhong, Lanlan/0000-0003-2050-8533; </t>
+          <t>Zhong, Lanlan/0000-0003-2050-8533;</t>
         </is>
       </c>
       <c r="AB192" t="inlineStr">
@@ -41905,6 +42192,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -42124,6 +42412,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -42327,6 +42616,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -42546,6 +42836,11 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr">
+        <is>
+          <t>3809396</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -42765,6 +43060,11 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr">
+        <is>
+          <t>3711933</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -42976,6 +43276,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -43195,6 +43496,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -43414,6 +43716,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -43633,6 +43936,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -43844,6 +44148,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -44063,6 +44368,11 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr">
+        <is>
+          <t>3715685</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -44286,6 +44596,7 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -44505,6 +44816,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -44724,6 +45036,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -44943,6 +45256,7 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -45162,6 +45476,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -45381,6 +45696,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -45592,6 +45908,7 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -45678,7 +45995,7 @@
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>Herzog, Gregoire/0000-0003-1932-9300; </t>
+          <t>Herzog, Gregoire/0000-0003-1932-9300;</t>
         </is>
       </c>
       <c r="AB210" t="inlineStr"/>
@@ -45803,6 +46120,11 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr">
+        <is>
+          <t>3097152</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -46018,6 +46340,7 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -46237,6 +46560,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -46452,6 +46776,11 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr">
+        <is>
+          <t>27257726</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -46671,6 +47000,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -46866,6 +47196,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -47045,6 +47376,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -47264,6 +47596,7 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -47479,6 +47812,7 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -47698,6 +48032,11 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr">
+        <is>
+          <t>49769587</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -47909,6 +48248,7 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -48128,6 +48468,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -48347,6 +48688,7 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -48433,7 +48775,7 @@
       </c>
       <c r="AA223" t="inlineStr">
         <is>
-          <t>Pumera, Martin/0000-0001-5846-2951; Zboril, Radek/0000-0002-3147-2196; Ambrosi, Adriano/0000-0002-0581-4658; </t>
+          <t>Pumera, Martin/0000-0001-5846-2951; Zboril, Radek/0000-0002-3147-2196; Ambrosi, Adriano/0000-0002-0581-4658;</t>
         </is>
       </c>
       <c r="AB223" t="inlineStr">
@@ -48566,6 +48908,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -48781,6 +49124,7 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -49000,6 +49344,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -49219,6 +49564,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -49438,6 +49784,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -49657,6 +50004,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -49876,6 +50224,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -50091,6 +50440,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -50302,6 +50652,11 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr">
+        <is>
+          <t>49763286</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -50509,6 +50864,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -50724,6 +51080,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -50935,6 +51292,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -51150,6 +51508,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -51369,6 +51728,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -51580,6 +51940,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -51799,6 +52160,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -52018,6 +52380,7 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -52221,6 +52584,7 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -52440,6 +52804,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -52651,6 +53016,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -52870,6 +53236,7 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -53089,6 +53456,7 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -53308,6 +53676,7 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -53527,6 +53896,7 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -53746,6 +54116,7 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -53965,6 +54336,7 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -54180,6 +54552,11 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr">
+        <is>
+          <t>54532822</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -54395,6 +54772,7 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -54606,6 +54984,7 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -54825,6 +55204,7 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -55044,6 +55424,7 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -55247,6 +55628,7 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -55462,6 +55844,11 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr">
+        <is>
+          <t>3027631</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -55673,6 +56060,7 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -55892,6 +56280,11 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr">
+        <is>
+          <t>3084532</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -56107,6 +56500,7 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -56326,6 +56720,7 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -56541,6 +56936,7 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -56756,6 +57152,7 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -56975,6 +57372,7 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -57182,6 +57580,7 @@
         </is>
       </c>
       <c r="BQ263" t="inlineStr"/>
+      <c r="BR263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -57389,6 +57788,7 @@
         </is>
       </c>
       <c r="BQ264" t="inlineStr"/>
+      <c r="BR264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -57608,6 +58008,7 @@
         </is>
       </c>
       <c r="BQ265" t="inlineStr"/>
+      <c r="BR265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -57827,6 +58228,7 @@
         </is>
       </c>
       <c r="BQ266" t="inlineStr"/>
+      <c r="BR266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -58038,6 +58440,7 @@
         </is>
       </c>
       <c r="BQ267" t="inlineStr"/>
+      <c r="BR267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -58249,6 +58652,7 @@
         </is>
       </c>
       <c r="BQ268" t="inlineStr"/>
+      <c r="BR268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -58460,6 +58864,7 @@
         </is>
       </c>
       <c r="BQ269" t="inlineStr"/>
+      <c r="BR269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -58679,6 +59084,7 @@
         </is>
       </c>
       <c r="BQ270" t="inlineStr"/>
+      <c r="BR270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -58898,6 +59304,7 @@
         </is>
       </c>
       <c r="BQ271" t="inlineStr"/>
+      <c r="BR271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -59117,6 +59524,7 @@
         </is>
       </c>
       <c r="BQ272" t="inlineStr"/>
+      <c r="BR272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -59336,6 +59744,7 @@
         </is>
       </c>
       <c r="BQ273" t="inlineStr"/>
+      <c r="BR273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -59555,6 +59964,7 @@
         </is>
       </c>
       <c r="BQ274" t="inlineStr"/>
+      <c r="BR274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -59774,6 +60184,7 @@
         </is>
       </c>
       <c r="BQ275" t="inlineStr"/>
+      <c r="BR275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -59993,6 +60404,7 @@
         </is>
       </c>
       <c r="BQ276" t="inlineStr"/>
+      <c r="BR276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -60212,6 +60624,7 @@
         </is>
       </c>
       <c r="BQ277" t="inlineStr"/>
+      <c r="BR277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -60431,6 +60844,7 @@
         </is>
       </c>
       <c r="BQ278" t="inlineStr"/>
+      <c r="BR278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -60650,6 +61064,7 @@
         </is>
       </c>
       <c r="BQ279" t="inlineStr"/>
+      <c r="BR279" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
